--- a/tests/data/output/一级报告详情测试用例-07001_result.xlsx
+++ b/tests/data/output/一级报告详情测试用例-07001_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="67">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>loan_analyst_overdue_time</t>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval</t>
   </si>
   <si>
     <t>info_loan_stats.id</t>
@@ -118,43 +121,43 @@
 info_loan_stats_pay.success_pay_avg_amount[0]=1000</t>
   </si>
   <si>
-    <t>loan_analyst_overdue_time='最近1个月'</t>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_time='最近3个月'</t>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_time='最近6个月'</t>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_time='最近12个月'</t>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_time=''</t>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval=''</t>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval='0~0.2万'</t>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval='0.2万~0.5万'</t>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval='0.5万~1万'</t>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval='1万~3万'</t>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval='3万~5万'</t>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval='5万~10万'</t>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval='10万以上'</t>
+    <t>loan_analyst_overdue_time=最近1个月</t>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_time=最近3个月</t>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_time=最近6个月</t>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_time=最近12个月</t>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_time=</t>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=</t>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=0~0.2万</t>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=0.2万~0.5万</t>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=0.5万~1万</t>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=1万~3万</t>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=3万~5万</t>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=5万~10万</t>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=10万以上</t>
   </si>
   <si>
     <t>user_name;
@@ -174,49 +177,70 @@
     <t>最近12个月</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>{"user_name":"饶建国","id_card_no":"220221193102184654","phone":"15882582217"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"仲杨","id_card_no":"140581195108102666","phone":"18842549180"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"揭梅","id_card_no":"350601196603281128","phone":"15529682475"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"冯佳","id_card_no":"421321199906088722","phone":"13234744946"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"祖丽娟","id_card_no":"33010419670120970X","phone":"18072747541"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"高玲","id_card_no":"230421194508129556","phone":"13862459773"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"梁淑兰","id_card_no":"130501195901227049","phone":"13363811775"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"何玉梅","id_card_no":"420000199807311643","phone":"15747753011"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"覃杨","id_card_no":"150801196106278140","phone":"13277154945"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"李军","id_card_no":"350400198208232168","phone":"18969989099"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"刘璐","id_card_no":"41010519410609049X","phone":"15111364657"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"郑明","id_card_no":"440112197402246586","phone":"18241150217"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"王艳","id_card_no":"450224195703086882","phone":"13913115792"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"陈勇","id_card_no":"654025198004243586","phone":"14774942272"}</t>
+    <t>0~0.2万</t>
+  </si>
+  <si>
+    <t>0.2万~0.5万</t>
+  </si>
+  <si>
+    <t>0.5万~1万</t>
+  </si>
+  <si>
+    <t>1万~3万</t>
+  </si>
+  <si>
+    <t>3万~5万</t>
+  </si>
+  <si>
+    <t>5万~10万</t>
+  </si>
+  <si>
+    <t>10万以上</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>{"user_name":"李玉英","id_card_no":"361125196204188811","phone":"15968182714"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"陈娜","id_card_no":"360601196204091046","phone":"15597530180"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"皮帆","id_card_no":"61032419291020170X","phone":"13732682943"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"郭宇","id_card_no":"511129198506136884","phone":"14599843950"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"杨伟","id_card_no":"321001195110214734","phone":"13824608142"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"班平","id_card_no":"610303198311288378","phone":"13442496118"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"杨秀云","id_card_no":"410581196205080788","phone":"15164980835"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"马利","id_card_no":"320582197606217692","phone":"13595459326"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"万丽","id_card_no":"220602194903037029","phone":"15729072479"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"马宁","id_card_no":"230231195807035134","phone":"18743594617"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"景峰","id_card_no":"130824197712288061","phone":"13083822952"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"董建国","id_card_no":"330482198106148361","phone":"15976167437"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"李鑫","id_card_no":"370403199308208576","phone":"13095078448"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"鞠龙","id_card_no":"120101196501315323","phone":"14748693360"}</t>
   </si>
 </sst>
 </file>
@@ -635,25 +659,25 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -673,25 +697,25 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -711,25 +735,25 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -749,25 +773,25 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -787,19 +811,19 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M6" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -816,25 +840,25 @@
         <v>7001</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -851,25 +875,28 @@
         <v>7001</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
+        <v>45</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -886,25 +913,28 @@
         <v>7001</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="K9" t="s">
+        <v>46</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M9" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -921,25 +951,28 @@
         <v>7001</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
+        <v>47</v>
       </c>
       <c r="L10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M10" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -956,25 +989,28 @@
         <v>7001</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>48</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -991,25 +1027,28 @@
         <v>7001</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="K12" t="s">
+        <v>49</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M12" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1026,25 +1065,28 @@
         <v>7001</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="K13" t="s">
+        <v>50</v>
       </c>
       <c r="L13" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M13" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1061,25 +1103,28 @@
         <v>7001</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="K14" t="s">
+        <v>51</v>
       </c>
       <c r="L14" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M14" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1096,22 +1141,22 @@
         <v>7001</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M15" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/output/一级报告详情测试用例-07001_result.xlsx
+++ b/tests/data/output/一级报告详情测试用例-07001_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -82,6 +82,14 @@
   </si>
   <si>
     <t>info_loan_stats_pay.loan_stats_id;
+info_loan_stats_pay.recent_months[0]="RECENTLY_1M";
+info_loan_stats_pay.recent_months[1]="RECENTLY_3M";
+info_loan_stats_pay.recent_months[2]="RECENTLY_6M";
+info_loan_stats_pay.recent_months[3]="RECENTLY_12M";
+info_loan_stats_pay.recent_months[4]=""</t>
+  </si>
+  <si>
+    <t>info_loan_stats_pay.loan_stats_id;
 info_loan_stats_pay.low_balance_fail_count[0]=0;
 info_loan_stats_pay.success_pay_avg_amount[0]=1000</t>
   </si>
@@ -121,43 +129,77 @@
 info_loan_stats_pay.success_pay_avg_amount[0]=1000</t>
   </si>
   <si>
-    <t>loan_analyst_overdue_time=最近1个月</t>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_time=最近3个月</t>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_time=最近6个月</t>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_time=最近12个月</t>
+    <t>info_loan_stats_pay.loan_stats_id;
+info_loan_stats_pay.low_balance_fail_count[0]=0;
+info_loan_stats_pay.success_pay_avg_amount[0]=1000;
+info_loan_stats_pay.low_balance_fail_count[1]=;
+info_loan_stats_pay.success_pay_avg_amount[1]=;
+info_loan_stats_pay.low_balance_fail_count[2]=1;
+info_loan_stats_pay.success_pay_avg_amount[2]=1000;
+info_loan_stats_pay.low_balance_fail_count[3]=2;
+info_loan_stats_pay.success_pay_avg_amount[3]=1000;
+info_loan_stats_pay.low_balance_fail_count[4]=5;
+info_loan_stats_pay.success_pay_avg_amount[4]=1000;
+info_loan_stats_pay.low_balance_fail_count[5]=10;
+info_loan_stats_pay.success_pay_avg_amount[5]=1000;
+info_loan_stats_pay.low_balance_fail_count[6]=30;
+info_loan_stats_pay.success_pay_avg_amount[6]=1000;
+info_loan_stats_pay.low_balance_fail_count[7]=50;
+info_loan_stats_pay.success_pay_avg_amount[7]=1000;
+info_loan_stats_pay.low_balance_fail_count[8]=100;
+info_loan_stats_pay.success_pay_avg_amount[8]=1000</t>
+  </si>
+  <si>
+    <t>info_loan_stats_pay.loan_stats_id;
+info_loan_stats_pay.low_balance_fail_count[0]=0;
+info_loan_stats_pay.success_pay_avg_amount[0]=1000;
+info_loan_stats_pay.low_balance_fail_count[1]=;
+info_loan_stats_pay.success_pay_avg_amount[1]=</t>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_time=['最近1个月']</t>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_time=['最近3个月']</t>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_time=['最近6个月']</t>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_time=['最近12个月']</t>
   </si>
   <si>
     <t>loan_analyst_overdue_time=</t>
   </si>
   <si>
+    <t>loan_analyst_overdue_time=['最近1个月', '最近3个月', '最近6个月', '最近12个月', '']</t>
+  </si>
+  <si>
     <t>loan_analyst_overdue_amt_interval=</t>
   </si>
   <si>
-    <t>loan_analyst_overdue_amt_interval=0~0.2万</t>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval=0.2万~0.5万</t>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval=0.5万~1万</t>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval=1万~3万</t>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval=3万~5万</t>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval=5万~10万</t>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval=10万以上</t>
+    <t>loan_analyst_overdue_amt_interval=['0~0.2万']</t>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=['0.2万~0.5万']</t>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=['0.5万~1万']</t>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=['1万~3万']</t>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=['3万~5万']</t>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=['5万~10万']</t>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=['10万以上']</t>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=['', '', '0~0.2万', '0.2万~0.5万', '0.5万~1万', '1万~3万', '3万~5万', '5万~10万', '10万以上']</t>
   </si>
   <si>
     <t>user_name;
@@ -165,82 +207,97 @@
 phone</t>
   </si>
   <si>
-    <t>最近1个月</t>
-  </si>
-  <si>
-    <t>最近3个月</t>
-  </si>
-  <si>
-    <t>最近6个月</t>
-  </si>
-  <si>
-    <t>最近12个月</t>
-  </si>
-  <si>
-    <t>0~0.2万</t>
-  </si>
-  <si>
-    <t>0.2万~0.5万</t>
-  </si>
-  <si>
-    <t>0.5万~1万</t>
-  </si>
-  <si>
-    <t>1万~3万</t>
-  </si>
-  <si>
-    <t>3万~5万</t>
-  </si>
-  <si>
-    <t>5万~10万</t>
-  </si>
-  <si>
-    <t>10万以上</t>
+    <t>['最近1个月']</t>
+  </si>
+  <si>
+    <t>['最近3个月']</t>
+  </si>
+  <si>
+    <t>['最近6个月']</t>
+  </si>
+  <si>
+    <t>['最近12个月']</t>
+  </si>
+  <si>
+    <t>['最近1个月', '最近3个月', '最近6个月', '最近12个月', '']</t>
+  </si>
+  <si>
+    <t>['0~0.2万']</t>
+  </si>
+  <si>
+    <t>['0.2万~0.5万']</t>
+  </si>
+  <si>
+    <t>['0.5万~1万']</t>
+  </si>
+  <si>
+    <t>['1万~3万']</t>
+  </si>
+  <si>
+    <t>['3万~5万']</t>
+  </si>
+  <si>
+    <t>['5万~10万']</t>
+  </si>
+  <si>
+    <t>['10万以上']</t>
+  </si>
+  <si>
+    <t>['', '', '0~0.2万', '0.2万~0.5万', '0.5万~1万', '1万~3万', '3万~5万', '5万~10万', '10万以上']</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>{"user_name":"李玉英","id_card_no":"361125196204188811","phone":"15968182714"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"陈娜","id_card_no":"360601196204091046","phone":"15597530180"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"皮帆","id_card_no":"61032419291020170X","phone":"13732682943"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"郭宇","id_card_no":"511129198506136884","phone":"14599843950"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"杨伟","id_card_no":"321001195110214734","phone":"13824608142"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"班平","id_card_no":"610303198311288378","phone":"13442496118"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"杨秀云","id_card_no":"410581196205080788","phone":"15164980835"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"马利","id_card_no":"320582197606217692","phone":"13595459326"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"万丽","id_card_no":"220602194903037029","phone":"15729072479"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"马宁","id_card_no":"230231195807035134","phone":"18743594617"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"景峰","id_card_no":"130824197712288061","phone":"13083822952"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"董建国","id_card_no":"330482198106148361","phone":"15976167437"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"李鑫","id_card_no":"370403199308208576","phone":"13095078448"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"鞠龙","id_card_no":"120101196501315323","phone":"14748693360"}</t>
+    <t>{"user_name":"叶洁","id_card_no":"64010619761219696X","phone":"18885327885"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"侯斌","id_card_no":"330921197108165253","phone":"13622974846"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"林岩","id_card_no":"511503198709142262","phone":"13359250375"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"胡秀梅","id_card_no":"211422198912024440","phone":"18506980771"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"陈秀梅","id_card_no":"150626195810252472","phone":"13599681068"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"王玉梅","id_card_no":"532322198806238947","phone":"15172915572"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"李建华","id_card_no":"440802194303309803","phone":"18778147412"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"周玉珍","id_card_no":"350628193807154266","phone":"18543523861"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"岑婷婷","id_card_no":"451028195102204922","phone":"13988305340"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"胡兰英","id_card_no":"340504195809107747","phone":"13334944444"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"金金凤","id_card_no":"511129198110139421","phone":"15313678026"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"余丽华","id_card_no":"14072419680226724X","phone":"15042445925"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"李红霞","id_card_no":"360981198409219872","phone":"13161848407"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"康波","id_card_no":"420000198903197946","phone":"14510093714"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"潘明","id_card_no":"360502195601141744","phone":"15920826916"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"周婷","id_card_no":"621001198503123950","phone":"15907681739"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"罗华","id_card_no":"65432619410602547X","phone":"18570651545"}</t>
   </si>
 </sst>
 </file>
@@ -598,7 +655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,19 +722,19 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -703,19 +760,19 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -741,19 +798,19 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -779,19 +836,19 @@
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -814,16 +871,16 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -840,7 +897,7 @@
         <v>7001</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -849,16 +906,19 @@
         <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
       </c>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -884,19 +944,16 @@
         <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" t="s">
         <v>45</v>
       </c>
       <c r="L8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -922,19 +979,19 @@
         <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L9" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -960,19 +1017,19 @@
         <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L10" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -998,19 +1055,19 @@
         <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L11" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M11" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1036,19 +1093,19 @@
         <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L12" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M12" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1074,19 +1131,19 @@
         <v>25</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L13" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1112,19 +1169,19 @@
         <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L14" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M14" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1146,17 +1203,128 @@
       <c r="F15" t="s">
         <v>14</v>
       </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
       <c r="I15" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="K15" t="s">
+        <v>57</v>
       </c>
       <c r="L15" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M15" t="s">
-        <v>66</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>7001</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>7001</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>7001</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/output/一级报告详情测试用例-07001_result.xlsx
+++ b/tests/data/output/一级报告详情测试用例-07001_result.xlsx
@@ -249,55 +249,55 @@
     <t>true</t>
   </si>
   <si>
-    <t>{"user_name":"叶洁","id_card_no":"64010619761219696X","phone":"18885327885"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"侯斌","id_card_no":"330921197108165253","phone":"13622974846"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"林岩","id_card_no":"511503198709142262","phone":"13359250375"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"胡秀梅","id_card_no":"211422198912024440","phone":"18506980771"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"陈秀梅","id_card_no":"150626195810252472","phone":"13599681068"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"王玉梅","id_card_no":"532322198806238947","phone":"15172915572"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"李建华","id_card_no":"440802194303309803","phone":"18778147412"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"周玉珍","id_card_no":"350628193807154266","phone":"18543523861"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"岑婷婷","id_card_no":"451028195102204922","phone":"13988305340"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"胡兰英","id_card_no":"340504195809107747","phone":"13334944444"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"金金凤","id_card_no":"511129198110139421","phone":"15313678026"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"余丽华","id_card_no":"14072419680226724X","phone":"15042445925"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"李红霞","id_card_no":"360981198409219872","phone":"13161848407"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"康波","id_card_no":"420000198903197946","phone":"14510093714"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"潘明","id_card_no":"360502195601141744","phone":"15920826916"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"周婷","id_card_no":"621001198503123950","phone":"15907681739"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"罗华","id_card_no":"65432619410602547X","phone":"18570651545"}</t>
+    <t>{"user_name":"李林","id_card_no":"140423196508255210","phone":"15103744659"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"冯华","id_card_no":"445200195208201646","phone":"15513422310"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"姚丽","id_card_no":"530621197204060620","phone":"15970335042"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"邓勇","id_card_no":"131081197911048882","phone":"18640456100"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"梁建军","id_card_no":"210204195107129719","phone":"15785015004"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"刘玉英","id_card_no":"460000196602269377","phone":"14504660026"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"张林","id_card_no":"220822198709060107","phone":"13688975371"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"池亮","id_card_no":"410421195012181834","phone":"18905326004"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"王莹","id_card_no":"210681199611027941","phone":"15690461918"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"王志强","id_card_no":"420702193312159778","phone":"18848815681"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"赖柳","id_card_no":"500109197309218810","phone":"14743480487"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"孙玉梅","id_card_no":"370113194204291188","phone":"14566290372"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"杨英","id_card_no":"411202199010228319","phone":"18069368958"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"廖柳","id_card_no":"622900199611144247","phone":"15205686601"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"赵艳","id_card_no":"360925193603149077","phone":"13347450819"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"高萍","id_card_no":"44162219530708594X","phone":"14596697323"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"吴桂兰","id_card_no":"650203193909172336","phone":"13326591152"}</t>
   </si>
 </sst>
 </file>
